--- a/比特直播课/比特直播课讲义/笔记-C语言/2024_10_15 19.自定义类型-结构体.xlsx
+++ b/比特直播课/比特直播课讲义/笔记-C语言/2024_10_15 19.自定义类型-结构体.xlsx
@@ -13,6 +13,23 @@
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>这样不行的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是像这样的情况，一样的结构储存，但第二种明显浪费的空间更多，所以</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1传的是结构体变量，2传的是结构体地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,6 +87,809 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>189761</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>66156</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1133475" y="1057275"/>
+          <a:ext cx="5914286" cy="4152381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>342049</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>132889</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7934325" y="1590675"/>
+          <a:ext cx="6809524" cy="3685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>256120</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>18190</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1419225" y="6000750"/>
+          <a:ext cx="8438095" cy="6876190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>27875</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>9142</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10201275" y="7058025"/>
+          <a:ext cx="5600000" cy="3066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>409298</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>123744</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1619250" y="13706475"/>
+          <a:ext cx="2219048" cy="647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>398184</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>75463</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1247775" y="16297275"/>
+          <a:ext cx="14923809" cy="5895238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>504512</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2114550" y="14582775"/>
+          <a:ext cx="2504762" cy="1361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>132</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>198867</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>132950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1219200" y="22650450"/>
+          <a:ext cx="9266667" cy="3200000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>130</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>122769</xdr:colOff>
+      <xdr:row>163</xdr:row>
+      <xdr:rowOff>151686</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10877550" y="22383750"/>
+          <a:ext cx="8447619" cy="5714286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>560761</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>123139</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="447675" y="28755975"/>
+          <a:ext cx="9714286" cy="5485714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>541721</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>170692</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10801350" y="28565475"/>
+          <a:ext cx="9628571" cy="6066667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>207</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>531967</xdr:colOff>
+      <xdr:row>245</xdr:row>
+      <xdr:rowOff>56346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1409700" y="35633025"/>
+          <a:ext cx="11466667" cy="6428571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>216</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>170707</xdr:colOff>
+      <xdr:row>223</xdr:row>
+      <xdr:rowOff>66532</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13430250" y="37157025"/>
+          <a:ext cx="5942857" cy="1142857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>248</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>85121</xdr:colOff>
+      <xdr:row>269</xdr:row>
+      <xdr:rowOff>170999</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3486150" y="42681525"/>
+          <a:ext cx="4828571" cy="3609524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161033</xdr:colOff>
+      <xdr:row>286</xdr:row>
+      <xdr:rowOff>132725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8801100" y="44167425"/>
+          <a:ext cx="7133333" cy="5000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>295</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>675684</xdr:colOff>
+      <xdr:row>298</xdr:row>
+      <xdr:rowOff>133270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2809875" y="50587275"/>
+          <a:ext cx="4723809" cy="638095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>299</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>513873</xdr:colOff>
+      <xdr:row>319</xdr:row>
+      <xdr:rowOff>66255</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3552825" y="51396900"/>
+          <a:ext cx="3819048" cy="3361905"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>323</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>523650</xdr:colOff>
+      <xdr:row>326</xdr:row>
+      <xdr:rowOff>161861</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="图片 19"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2838450" y="55540275"/>
+          <a:ext cx="1800000" cy="514286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>327</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>542443</xdr:colOff>
+      <xdr:row>369</xdr:row>
+      <xdr:rowOff>113396</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="图片 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3543300" y="56149875"/>
+          <a:ext cx="3857143" cy="7228571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>337</xdr:row>
+      <xdr:rowOff>159531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>547134</xdr:colOff>
+      <xdr:row>366</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="图片 21"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7905750" y="57938181"/>
+          <a:ext cx="11157984" cy="4822043"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>372</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>180018</xdr:colOff>
+      <xdr:row>388</xdr:row>
+      <xdr:rowOff>18725</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="图片 22"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId21"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4181475" y="63941325"/>
+          <a:ext cx="7657143" cy="2600000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -359,17 +1179,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="N64:Q336"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S27" sqref="S27"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="W375" sqref="W375"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="64" spans="17:17" x14ac:dyDescent="0.15">
+      <c r="Q64" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N256" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="14:14" x14ac:dyDescent="0.15">
+      <c r="N336" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
